--- a/biology/Médecine/Henri-Louis_Roger/Henri-Louis_Roger.xlsx
+++ b/biology/Médecine/Henri-Louis_Roger/Henri-Louis_Roger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri-Louis Roger, né le 15 juin 1809 à Paris où il est mort le 15 novembre 1891, est un médecin, cardiologue et pédiatre français. 
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri-Louis Roger étudia la médecine à Paris, et obtint son doctorat en médecine en 1839 avec une thèse sur l'auscultation intitulé De l'auscultation et se valeur semiologique. 
 En 1847, il devint agrégé à la faculté de médecine de Paris.
 À partir de 1860, il a été associée à l'ancien hôpital Sainte-Eugénie devenu l'hôpital de la Charité. Là, il a concentré ses recherches sur les enquêtes post-mortem des enfants. Il s'intéressa également aux recherches concernant la cardiologie. 
 Son nom est associé à deux termes éponymes :
-la maladie de Roger, qui est une cardiopathie congénitale du septum ventriculaire asymptomatique (CIV)[1] ;
+la maladie de Roger, qui est une cardiopathie congénitale du septum ventriculaire asymptomatique (CIV) ;
 le « bruit de Roger » (ou le « murmure de Roger »), qui est un bruit pansystolique d'un défaut du septum ventriculaire.
 En 1862, il devint membre de l'Académie de médecine.
 Avec le pathologiste Jean Baptiste Barth (1806-1877), Henri-Louis Roger a publié un ouvrage sur l'auscultation Traité pratique à l'auscultation, édité en 1865, à Paris, aux éditions Asselin.
-Il est inhumé au cimetière du Père-Lachaise (21e division)[2].
+Il est inhumé au cimetière du Père-Lachaise (21e division).
 </t>
         </is>
       </c>
